--- a/Tester Results/REACTION_PEAKVALUE_TONE_IN_NOISE_DIFF_MERGED_DATE.xlsx
+++ b/Tester Results/REACTION_PEAKVALUE_TONE_IN_NOISE_DIFF_MERGED_DATE.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.744444444444445</v>
+        <v>9.677777777777779</v>
       </c>
       <c r="C2" t="n">
-        <v>10.89063180827887</v>
+        <v>10.8797385620915</v>
       </c>
       <c r="D2" t="n">
-        <v>1.146187363834423</v>
+        <v>1.201960784313725</v>
       </c>
       <c r="E2" t="n">
-        <v>65.73333333333333</v>
+        <v>65.56666666666666</v>
       </c>
       <c r="F2" t="n">
-        <v>89.31568627450982</v>
+        <v>89.61078431372549</v>
       </c>
       <c r="G2" t="n">
-        <v>23.58235294117648</v>
+        <v>24.04411764705883</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.818518518518518</v>
+        <v>8.855555555555556</v>
       </c>
       <c r="C3" t="n">
-        <v>10.53202614379085</v>
+        <v>10.50871459694989</v>
       </c>
       <c r="D3" t="n">
-        <v>1.713507625272332</v>
+        <v>1.653159041394336</v>
       </c>
       <c r="E3" t="n">
-        <v>133.1</v>
+        <v>133.5166666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>157.3632897603486</v>
+        <v>158.7729847494554</v>
       </c>
       <c r="G3" t="n">
-        <v>24.26328976034858</v>
+        <v>25.25631808278868</v>
       </c>
     </row>
   </sheetData>
